--- a/off_model_calculators/off_model_from_client_091018/Steer Davies Gleave_PTP_5-29-18_rev for calc_9-7-18.xlsx
+++ b/off_model_calculators/off_model_from_client_091018/Steer Davies Gleave_PTP_5-29-18_rev for calc_9-7-18.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TDM\iCommute\Planning\FMRP\TO 3\Task 3 - Off Model Methodologies\Off-Model Calculators\CBTP\Resources\Consultant Feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wsponline-my.sharepoint.com/personal/john_helsel_wsp_com/Documents/SANDAG/RTP 2019/off_model_calculators/off_model_from_client_091018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B25DB6E-8A27-4041-BC2B-C271C457FE56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -344,18 +343,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -370,27 +357,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -401,13 +376,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -723,11 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -783,10 +783,10 @@
       <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="7" t="s">
@@ -804,7 +804,7 @@
       <c r="P1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="14" t="s">
         <v>52</v>
       </c>
       <c r="R1" s="7" t="s">
@@ -852,7 +852,7 @@
         <f>I2</f>
         <v>2324</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="17">
         <v>2219</v>
       </c>
       <c r="L2">
@@ -873,7 +873,7 @@
         <f>M2/L2</f>
         <v>0.49659863945578231</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="15">
         <f>M2/I2</f>
         <v>0.21987951807228914</v>
       </c>
@@ -922,7 +922,7 @@
         <f t="shared" ref="J3:J9" si="1">I3</f>
         <v>3947</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="17">
         <v>3434</v>
       </c>
       <c r="L3">
@@ -943,7 +943,7 @@
         <f>M3/L3</f>
         <v>0.19632206759443341</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="15">
         <f>M3/I3</f>
         <v>0.10007600709399544</v>
       </c>
@@ -988,7 +988,7 @@
         <f t="shared" si="1"/>
         <v>6728</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="17">
         <v>5322</v>
       </c>
       <c r="L4" s="5">
@@ -1009,7 +1009,7 @@
         <f>M4/L4</f>
         <v>0.54618834080717493</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="15">
         <f>M4/I4</f>
         <v>0.18103448275862069</v>
       </c>
@@ -1056,7 +1056,7 @@
         <f t="shared" si="1"/>
         <v>4919</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="17">
         <v>4457</v>
       </c>
       <c r="L5">
@@ -1077,7 +1077,7 @@
         <f>M5/L5</f>
         <v>0.31923652694610777</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="15">
         <f>M5/I5</f>
         <v>0.17340922951819476</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="40" t="s">
         <v>46</v>
       </c>
       <c r="F6" t="s">
@@ -1116,7 +1116,7 @@
       <c r="G6">
         <v>2014</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="39">
         <v>50000</v>
       </c>
       <c r="I6">
@@ -1126,7 +1126,7 @@
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="17">
         <v>372</v>
       </c>
       <c r="L6" s="5">
@@ -1135,7 +1135,7 @@
       <c r="M6" s="5">
         <v>114</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="42">
         <f>H6/(M6+M7)</f>
         <v>431.0344827586207</v>
       </c>
@@ -1147,14 +1147,14 @@
         <f>M6/L6</f>
         <v>0.46913580246913578</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="15">
         <f>M6/I6</f>
         <v>0.26511627906976742</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="41">
         <v>0.51</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="41">
         <v>-0.1</v>
       </c>
       <c r="T6" s="2">
@@ -1175,14 +1175,14 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="40"/>
       <c r="F7" t="s">
         <v>42</v>
       </c>
       <c r="G7">
         <v>2014</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="5">
         <v>302</v>
       </c>
@@ -1190,22 +1190,22 @@
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="18">
         <v>302</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5">
         <v>2</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
@@ -1241,7 +1241,7 @@
         <f t="shared" si="1"/>
         <v>6081</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="18">
         <v>6081</v>
       </c>
       <c r="L8" s="6"/>
@@ -1297,7 +1297,7 @@
         <f t="shared" si="1"/>
         <v>7888</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="18">
         <v>7888</v>
       </c>
       <c r="L9" s="6"/>
@@ -1381,11 +1381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6330ED-7802-4D79-A027-1CBCA90E3C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26" style="23" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="19" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" hidden="1" customWidth="1"/>
@@ -1414,7 +1414,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1440,16 +1440,16 @@
       <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="33" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1467,13 +1467,13 @@
       <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="14" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="7" t="s">
@@ -1499,23 +1499,23 @@
       <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G3">
         <v>2017</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="36">
         <v>100000</v>
       </c>
       <c r="I3">
         <v>2324</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="34">
         <f>I3</f>
         <v>2324</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="17">
         <v>2219</v>
       </c>
       <c r="L3">
@@ -1536,14 +1536,14 @@
         <f>M3/L3</f>
         <v>0.49659863945578231</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="15">
         <f>M3/J3</f>
         <v>0.21987951807228914</v>
       </c>
       <c r="R3" s="2">
         <v>0.41</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="15">
         <v>-0.13</v>
       </c>
       <c r="T3" s="2">
@@ -1569,23 +1569,23 @@
       <c r="E4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G4">
         <v>2016</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="36">
         <v>130000</v>
       </c>
       <c r="I4">
         <v>3947</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="34">
         <f t="shared" ref="J4:J11" si="0">I4</f>
         <v>3947</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="17">
         <v>3434</v>
       </c>
       <c r="L4">
@@ -1606,14 +1606,14 @@
         <f>M4/L4</f>
         <v>0.19632206759443341</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="15">
         <f>M4/J4</f>
         <v>0.10007600709399544</v>
       </c>
       <c r="R4" s="2">
         <v>0.19</v>
       </c>
-      <c r="S4" s="37"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="2">
         <v>0.92</v>
       </c>
@@ -1635,23 +1635,23 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G5">
         <v>2017</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="36">
         <v>145000</v>
       </c>
       <c r="I5">
         <v>4919</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="34">
         <f t="shared" si="0"/>
         <v>4919</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="17">
         <v>4457</v>
       </c>
       <c r="L5">
@@ -1672,14 +1672,14 @@
         <f>M5/L5</f>
         <v>0.31923652694610777</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="15">
         <f>M5/J5</f>
         <v>0.17340922951819476</v>
       </c>
       <c r="R5" s="2">
         <v>0.52</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="15">
         <v>-0.25</v>
       </c>
       <c r="T5" s="2">
@@ -1705,13 +1705,13 @@
       <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G6">
         <v>2014</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="36">
         <f>H7</f>
         <v>50000</v>
       </c>
@@ -1719,7 +1719,7 @@
         <f>I7+I8</f>
         <v>732</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="34">
         <f>J7+J8</f>
         <v>732</v>
       </c>
@@ -1747,7 +1747,7 @@
         <f>M6/L6</f>
         <v>0.47736625514403291</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="15">
         <f>M6/J6</f>
         <v>0.15846994535519127</v>
       </c>
@@ -1755,7 +1755,7 @@
         <f>R7</f>
         <v>0.51</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="15">
         <f>S7</f>
         <v>-0.1</v>
       </c>
@@ -1766,125 +1766,125 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>2014</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>50000</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="22">
         <v>430</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="35">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="24">
         <v>372</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <v>243</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="25">
         <v>114</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="45">
         <f>H7/(M7+M8)</f>
         <v>431.0344827586207</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="26">
         <f t="shared" si="1"/>
         <v>0.30645161290322581</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="26">
         <f t="shared" ref="P7:P8" si="2">M7/L7</f>
         <v>0.46913580246913578</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="27">
         <f t="shared" ref="Q7:Q8" si="3">M7/J7</f>
         <v>0.26511627906976742</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="46">
         <v>0.51</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="47">
         <v>-0.1</v>
       </c>
-      <c r="T7" s="32">
+      <c r="T7" s="26">
         <v>0.86</v>
       </c>
-      <c r="U7" s="35"/>
+      <c r="U7" s="28"/>
     </row>
     <row r="8" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>2014</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="30">
+      <c r="H8" s="44"/>
+      <c r="I8" s="25">
         <v>302</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
         <v>302</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="29">
         <v>302</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="30">
+      <c r="L8" s="28"/>
+      <c r="M8" s="25">
         <v>2</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32">
+      <c r="N8" s="45"/>
+      <c r="O8" s="26">
         <f t="shared" si="1"/>
         <v>6.6225165562913907E-3</v>
       </c>
-      <c r="P8" s="32" t="e">
+      <c r="P8" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="27">
         <f t="shared" si="3"/>
         <v>6.6225165562913907E-3</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="1:21" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1902,34 +1902,34 @@
       <c r="E9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="46">
-        <f>SUM(H10:H12)</f>
+      <c r="H9" s="37">
+        <f t="shared" ref="H9:M9" si="4">SUM(H10:H12)</f>
         <v>440000</v>
       </c>
       <c r="I9">
-        <f>SUM(I10:I12)</f>
+        <f t="shared" si="4"/>
         <v>20697</v>
       </c>
-      <c r="J9" s="42">
-        <f>SUM(J10:J12)</f>
+      <c r="J9" s="34">
+        <f t="shared" si="4"/>
         <v>20697</v>
       </c>
       <c r="K9">
-        <f>SUM(K10:K12)</f>
+        <f t="shared" si="4"/>
         <v>19291</v>
       </c>
       <c r="L9">
-        <f>SUM(L10:L12)</f>
+        <f t="shared" si="4"/>
         <v>2230</v>
       </c>
       <c r="M9">
-        <f>SUM(M10:M12)</f>
+        <f t="shared" si="4"/>
         <v>2708</v>
       </c>
       <c r="N9" s="10">
@@ -1944,16 +1944,16 @@
         <f>M9/L9</f>
         <v>1.2143497757847534</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="15">
         <f>M9/J9</f>
         <v>0.13084021838913854</v>
       </c>
       <c r="R9" s="13"/>
-      <c r="S9" s="39">
+      <c r="S9" s="31">
         <f>AVERAGE(S10:S12)</f>
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="32">
         <f>T12</f>
         <v>0.9</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G10">
@@ -1991,7 +1991,7 @@
         <f t="shared" si="0"/>
         <v>6081</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <v>6081</v>
       </c>
       <c r="L10" s="6"/>
@@ -2007,12 +2007,12 @@
         <v>0.13928630159513239</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="19">
+      <c r="Q10" s="15">
         <f>M10/J10</f>
         <v>0.13928630159513239</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="19">
+      <c r="S10" s="15">
         <v>-0.08</v>
       </c>
       <c r="T10" s="6"/>
@@ -2034,7 +2034,7 @@
       <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G11">
@@ -2050,7 +2050,7 @@
         <f t="shared" si="0"/>
         <v>7888</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="18">
         <v>7888</v>
       </c>
       <c r="L11" s="6"/>
@@ -2066,12 +2066,12 @@
         <v>8.1516227180527381E-2</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="19">
+      <c r="Q11" s="15">
         <f>M11/J11</f>
         <v>8.1516227180527381E-2</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="19">
+      <c r="S11" s="15">
         <v>-0.13</v>
       </c>
       <c r="T11" s="6"/>
@@ -2093,7 +2093,7 @@
       <c r="E12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G12">
@@ -2109,7 +2109,7 @@
         <f>I12</f>
         <v>6728</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="17">
         <v>5322</v>
       </c>
       <c r="L12" s="5">
@@ -2130,14 +2130,14 @@
         <f>M12/L12</f>
         <v>0.54618834080717493</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="15">
         <f>M12/J12</f>
         <v>0.18103448275862069</v>
       </c>
       <c r="R12" s="2">
         <v>0.25</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="15">
         <v>-0.04</v>
       </c>
       <c r="T12" s="2">
